--- a/diagrammes/Diagramme_Gantt/Diagramme de Gantt.xlsx
+++ b/diagrammes/Diagramme_Gantt/Diagramme de Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83AE4CF3-F82F-854D-A3C3-9B974201E9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEB2FA8-C987-5B43-8B7F-A08968E56963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -180,9 +180,6 @@
     <t>Projet CWA</t>
   </si>
   <si>
-    <t xml:space="preserve">       Groupe 10 : NGUYEN Van Tai , DUCOEUR Lancelot , DUPRE Thibault , KLOPFENSTEIN Benjamin , LAURENT Dorian , MOURELON Yann , PINSON Daniel</t>
-  </si>
-  <si>
     <t>Front-end</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Association la partie Front-end / Back-end</t>
   </si>
   <si>
-    <t>Vérifier les fontionnalités d'application</t>
-  </si>
-  <si>
     <t>Codage la partie Routage</t>
   </si>
   <si>
@@ -229,6 +223,39 @@
   </si>
   <si>
     <t xml:space="preserve">DIAGRAMME DE GANTT </t>
+  </si>
+  <si>
+    <t>Vérifier les fontionnalités d'application / des tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Groupe 10 : NGUYEN Van Tai (VN) , DUCOEUR Lancelot (LD) , DUPRE Thibault (TD) , KLOPFENSTEIN Benjamin (BK) , LAURENT Dorian (DL)  , MOURELON Yann (YM) , PINSON Daniel (DP)</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>YM</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>VN-DL-YM</t>
+  </si>
+  <si>
+    <t>DP-YM</t>
+  </si>
+  <si>
+    <t>DP-KB</t>
+  </si>
+  <si>
+    <t>VN-DP-LD</t>
+  </si>
+  <si>
+    <t>VN-TD</t>
+  </si>
+  <si>
+    <t>VN-TD-DL</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1158,7 @@
     <xf numFmtId="169" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="169" fontId="7" fillId="2" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,7 +1167,7 @@
     <xf numFmtId="169" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,37 +1179,37 @@
     <xf numFmtId="171" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="8" applyNumberFormat="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="8" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1794,13 +1821,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="5" customWidth="1"/>
@@ -1824,121 +1851,121 @@
       <c r="F1" s="22"/>
       <c r="H1" s="2"/>
       <c r="I1" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" s="60" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="61" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:64" s="58" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67">
-        <v>44879</v>
-      </c>
-      <c r="F3" s="67"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="68">
+        <v>44893</v>
+      </c>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:64" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="65">
         <f>I5</f>
-        <v>44879</v>
-      </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="56">
+        <v>44893</v>
+      </c>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="65">
         <f>P5</f>
-        <v>44886</v>
-      </c>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="56">
+        <v>44900</v>
+      </c>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="65">
         <f>W5</f>
-        <v>44893</v>
-      </c>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="56">
+        <v>44907</v>
+      </c>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="65">
         <f>AD5</f>
-        <v>44900</v>
-      </c>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="56">
+        <v>44914</v>
+      </c>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="65">
         <f>AK5</f>
-        <v>44907</v>
-      </c>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="56">
+        <v>44921</v>
+      </c>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="65">
         <f>AR5</f>
-        <v>44914</v>
-      </c>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="56">
+        <v>44928</v>
+      </c>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="67"/>
+      <c r="AY4" s="65">
         <f>AY5</f>
-        <v>44921</v>
-      </c>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="56">
+        <v>44935</v>
+      </c>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="65">
         <f>BF5</f>
-        <v>44928</v>
-      </c>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="58"/>
+        <v>44942</v>
+      </c>
+      <c r="BG4" s="66"/>
+      <c r="BH4" s="66"/>
+      <c r="BI4" s="66"/>
+      <c r="BJ4" s="66"/>
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="67"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
@@ -1952,227 +1979,227 @@
       <c r="G5" s="44"/>
       <c r="I5" s="53">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
-        <v>44879</v>
+        <v>44893</v>
       </c>
       <c r="J5" s="54">
         <f>I5+1</f>
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="K5" s="54">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44881</v>
+        <v>44895</v>
       </c>
       <c r="L5" s="54">
         <f t="shared" si="0"/>
-        <v>44882</v>
+        <v>44896</v>
       </c>
       <c r="M5" s="54">
         <f t="shared" si="0"/>
-        <v>44883</v>
+        <v>44897</v>
       </c>
       <c r="N5" s="54">
         <f t="shared" si="0"/>
-        <v>44884</v>
+        <v>44898</v>
       </c>
       <c r="O5" s="55">
         <f t="shared" si="0"/>
-        <v>44885</v>
+        <v>44899</v>
       </c>
       <c r="P5" s="53">
         <f>O5+1</f>
-        <v>44886</v>
+        <v>44900</v>
       </c>
       <c r="Q5" s="54">
         <f>P5+1</f>
-        <v>44887</v>
+        <v>44901</v>
       </c>
       <c r="R5" s="54">
         <f t="shared" si="0"/>
-        <v>44888</v>
+        <v>44902</v>
       </c>
       <c r="S5" s="54">
         <f t="shared" si="0"/>
-        <v>44889</v>
+        <v>44903</v>
       </c>
       <c r="T5" s="54">
         <f t="shared" si="0"/>
-        <v>44890</v>
+        <v>44904</v>
       </c>
       <c r="U5" s="54">
         <f t="shared" si="0"/>
-        <v>44891</v>
+        <v>44905</v>
       </c>
       <c r="V5" s="55">
         <f t="shared" si="0"/>
-        <v>44892</v>
+        <v>44906</v>
       </c>
       <c r="W5" s="53">
         <f>V5+1</f>
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="X5" s="54">
         <f>W5+1</f>
-        <v>44894</v>
+        <v>44908</v>
       </c>
       <c r="Y5" s="54">
         <f t="shared" si="0"/>
-        <v>44895</v>
+        <v>44909</v>
       </c>
       <c r="Z5" s="54">
         <f t="shared" si="0"/>
-        <v>44896</v>
+        <v>44910</v>
       </c>
       <c r="AA5" s="54">
         <f t="shared" si="0"/>
-        <v>44897</v>
+        <v>44911</v>
       </c>
       <c r="AB5" s="54">
         <f t="shared" si="0"/>
-        <v>44898</v>
+        <v>44912</v>
       </c>
       <c r="AC5" s="55">
         <f t="shared" si="0"/>
-        <v>44899</v>
+        <v>44913</v>
       </c>
       <c r="AD5" s="53">
         <f>AC5+1</f>
-        <v>44900</v>
+        <v>44914</v>
       </c>
       <c r="AE5" s="54">
         <f>AD5+1</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
       <c r="AF5" s="54">
         <f t="shared" si="0"/>
-        <v>44902</v>
+        <v>44916</v>
       </c>
       <c r="AG5" s="54">
         <f t="shared" si="0"/>
-        <v>44903</v>
+        <v>44917</v>
       </c>
       <c r="AH5" s="54">
         <f t="shared" si="0"/>
-        <v>44904</v>
+        <v>44918</v>
       </c>
       <c r="AI5" s="54">
         <f t="shared" si="0"/>
-        <v>44905</v>
+        <v>44919</v>
       </c>
       <c r="AJ5" s="55">
         <f t="shared" si="0"/>
-        <v>44906</v>
+        <v>44920</v>
       </c>
       <c r="AK5" s="53">
         <f>AJ5+1</f>
-        <v>44907</v>
+        <v>44921</v>
       </c>
       <c r="AL5" s="54">
         <f>AK5+1</f>
-        <v>44908</v>
+        <v>44922</v>
       </c>
       <c r="AM5" s="54">
         <f t="shared" si="0"/>
-        <v>44909</v>
+        <v>44923</v>
       </c>
       <c r="AN5" s="54">
         <f t="shared" si="0"/>
-        <v>44910</v>
+        <v>44924</v>
       </c>
       <c r="AO5" s="54">
         <f t="shared" si="0"/>
-        <v>44911</v>
+        <v>44925</v>
       </c>
       <c r="AP5" s="54">
         <f t="shared" si="0"/>
-        <v>44912</v>
+        <v>44926</v>
       </c>
       <c r="AQ5" s="55">
         <f t="shared" si="0"/>
-        <v>44913</v>
+        <v>44927</v>
       </c>
       <c r="AR5" s="53">
         <f>AQ5+1</f>
-        <v>44914</v>
+        <v>44928</v>
       </c>
       <c r="AS5" s="54">
         <f>AR5+1</f>
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="AT5" s="54">
         <f t="shared" si="0"/>
-        <v>44916</v>
+        <v>44930</v>
       </c>
       <c r="AU5" s="54">
         <f t="shared" si="0"/>
-        <v>44917</v>
+        <v>44931</v>
       </c>
       <c r="AV5" s="54">
         <f t="shared" si="0"/>
-        <v>44918</v>
+        <v>44932</v>
       </c>
       <c r="AW5" s="54">
         <f t="shared" si="0"/>
-        <v>44919</v>
+        <v>44933</v>
       </c>
       <c r="AX5" s="55">
         <f t="shared" si="0"/>
-        <v>44920</v>
+        <v>44934</v>
       </c>
       <c r="AY5" s="53">
         <f>AX5+1</f>
-        <v>44921</v>
+        <v>44935</v>
       </c>
       <c r="AZ5" s="54">
         <f>AY5+1</f>
-        <v>44922</v>
+        <v>44936</v>
       </c>
       <c r="BA5" s="54">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44923</v>
+        <v>44937</v>
       </c>
       <c r="BB5" s="54">
         <f t="shared" si="1"/>
-        <v>44924</v>
+        <v>44938</v>
       </c>
       <c r="BC5" s="54">
         <f t="shared" si="1"/>
-        <v>44925</v>
+        <v>44939</v>
       </c>
       <c r="BD5" s="54">
         <f t="shared" si="1"/>
-        <v>44926</v>
+        <v>44940</v>
       </c>
       <c r="BE5" s="55">
         <f t="shared" si="1"/>
-        <v>44927</v>
+        <v>44941</v>
       </c>
       <c r="BF5" s="53">
         <f>BE5+1</f>
-        <v>44928</v>
+        <v>44942</v>
       </c>
       <c r="BG5" s="54">
         <f>BF5+1</f>
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="BH5" s="54">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44930</v>
+        <v>44944</v>
       </c>
       <c r="BI5" s="54">
         <f t="shared" si="2"/>
-        <v>44931</v>
+        <v>44945</v>
       </c>
       <c r="BJ5" s="54">
         <f t="shared" si="2"/>
-        <v>44932</v>
+        <v>44946</v>
       </c>
       <c r="BK5" s="54">
         <f t="shared" si="2"/>
-        <v>44933</v>
+        <v>44947</v>
       </c>
       <c r="BL5" s="55">
         <f t="shared" si="2"/>
-        <v>44934</v>
+        <v>44948</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2495,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="15"/>
@@ -2503,7 +2530,7 @@
       <c r="F8" s="48"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H21" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H19" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="20"/>
@@ -2568,19 +2595,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="39"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="49">
         <f>Début_Projet</f>
-        <v>44879</v>
+        <v>44893</v>
       </c>
       <c r="F9" s="49">
         <f>E9+2</f>
-        <v>44881</v>
+        <v>44895</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
@@ -2649,19 +2678,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="39"/>
+        <v>36</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="49">
         <f>F9+1</f>
-        <v>44882</v>
+        <v>44896</v>
       </c>
       <c r="F10" s="49">
         <f>E10+3</f>
-        <v>44885</v>
+        <v>44899</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
@@ -2728,19 +2759,21 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="39"/>
+        <v>37</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="49">
         <f>F9+1</f>
-        <v>44882</v>
+        <v>44896</v>
       </c>
       <c r="F11" s="49">
         <f>E11+3</f>
-        <v>44885</v>
+        <v>44899</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
@@ -2807,19 +2840,21 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="39"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="49">
         <f>F9+1</f>
-        <v>44882</v>
+        <v>44896</v>
       </c>
       <c r="F12" s="49">
         <f>E12+4</f>
-        <v>44886</v>
+        <v>44900</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13">
@@ -2886,19 +2921,21 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="39"/>
+        <v>39</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>54</v>
+      </c>
       <c r="D13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="49">
         <f>F12+1</f>
-        <v>44887</v>
+        <v>44901</v>
       </c>
       <c r="F13" s="49">
         <f>E13+6</f>
-        <v>44893</v>
+        <v>44907</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13">
@@ -2965,19 +3002,21 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="39"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="49">
         <f>F13+1</f>
-        <v>44894</v>
+        <v>44908</v>
       </c>
       <c r="F14" s="49">
         <f>E14+2</f>
-        <v>44896</v>
+        <v>44910</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13">
@@ -3046,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="18"/>
@@ -3117,19 +3156,21 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="41"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>53</v>
+      </c>
       <c r="D16" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="52">
         <f>E9</f>
-        <v>44879</v>
+        <v>44893</v>
       </c>
       <c r="F16" s="52">
         <f>E16</f>
-        <v>44879</v>
+        <v>44893</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13">
@@ -3196,19 +3237,21 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="41"/>
+        <v>43</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="D17" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="52">
         <f>E9</f>
-        <v>44879</v>
+        <v>44893</v>
       </c>
       <c r="F17" s="52">
         <f>E17+6</f>
-        <v>44885</v>
+        <v>44899</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13">
@@ -3275,19 +3318,21 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="41"/>
+        <v>44</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="52">
         <f>F17+1</f>
-        <v>44886</v>
+        <v>44900</v>
       </c>
       <c r="F18" s="52">
         <f>E18+4</f>
-        <v>44890</v>
+        <v>44904</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13">
@@ -3354,24 +3399,26 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="41"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>59</v>
+      </c>
       <c r="D19" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="52">
         <f>F14+1</f>
-        <v>44897</v>
+        <v>44911</v>
       </c>
       <c r="F19" s="52">
-        <f>E19+6</f>
-        <v>44903</v>
+        <f>E19+8</f>
+        <v>44919</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -3433,24 +3480,26 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="52">
         <f>F19+1</f>
-        <v>44904</v>
+        <v>44920</v>
       </c>
       <c r="F20" s="52">
-        <f>E20+6</f>
-        <v>44910</v>
+        <f>E20+8</f>
+        <v>44928</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13">
         <f>IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -3512,24 +3561,26 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="41"/>
+        <v>49</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="52">
         <f>F20+1</f>
-        <v>44911</v>
+        <v>44929</v>
       </c>
       <c r="F21" s="52">
-        <f>E21+6</f>
-        <v>44917</v>
+        <f>E21+3</f>
+        <v>44932</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
         <f>IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -3786,12 +3837,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4083,29 +4145,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4132,13 +4187,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>